--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Priyabrata\Ruby\Industry Connect\MVPTask\Task3\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6198A1B-AEF3-4085-B415-8C128B2285EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEC82D-4BCF-41ED-ABF9-6102C67391F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>Url</t>
   </si>
@@ -264,13 +264,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -812,11 +815,11 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44133</v>
+        <v>44144</v>
       </c>
       <c r="I2" s="3">
         <f ca="1">EDATE(H2,1)</f>
-        <v>44164</v>
+        <v>44174</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>37</v>
@@ -854,7 +857,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,11 +946,11 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44133</v>
+        <v>44144</v>
       </c>
       <c r="I2" s="3">
         <f ca="1">EDATE(H2,2)</f>
-        <v>44194</v>
+        <v>44205</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>37</v>
@@ -974,12 +977,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
